--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>398021</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>中海能源策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>12.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>398061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>中海消费混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.00</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>530012</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信积极配置混合</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>78.98</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>398061</t>
+          <t>001721</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中海消费混合</t>
+          <t>工银瑞信新增益混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.97</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>398021</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中海能源策略混合</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.22</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007804</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强C</t>
+          <t>工银瑞信智能制造股票</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001781</t>
+          <t>530012</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>建信现代服务业股票</t>
+          <t>建信积极配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002861</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信智能制造股票</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>93.13</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001721</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工银瑞信新增益混合</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29.79</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>001781</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>建信现代服务业股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>9.03</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>007804</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>申万菱信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001721</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信新增益混合</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.76</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>001721</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>工银瑞信新增益混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.39</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>002861</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>工银瑞信智能制造股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>4.07</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>6</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>000756</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>建信潜力新蓝筹股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002861</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信智能制造股票</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.31</v>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7021</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.39</v>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2022,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>30.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2483,7 +2484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2494,17 +2495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2514,14 +2535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.87</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>118.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2530,14 +2573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4096</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2546,14 +2611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9784</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -2562,14 +2649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.39</v>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3232</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2578,13 +2687,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2844,7 +2845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,17 +2856,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2875,14 +2896,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.73</v>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6946</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2891,14 +2934,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.87</v>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.2263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2907,14 +2972,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2923,14 +3010,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.31</v>
+          <t>910009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2939,14 +3048,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.39</v>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2955,13 +3086,708 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050012</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时策略混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银添禧丰禄稳健养老目标一年持有期混合（FOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004677</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011982</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010443</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红启程三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.99</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>15.77</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>10.73</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>2.87</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -600,6 +617,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011637</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5161</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3217</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2138</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011845</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时周期优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015031</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015030</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011638</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发沪港深价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014913</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究回报混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014914</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时研究回报混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011846</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时周期优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012415</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012416</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦上证G60综指增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1408,7 +2809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1768,7 +3169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2387,214 +3788,6 @@
       </c>
       <c r="H16" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010779</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1957</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001721</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新增益混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0945</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0648</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010780</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2659,36 +3852,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>010779</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>西部利得量化优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1252</t>
+          <t>0.1957</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2707,26 +3900,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.04</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0825</t>
+          <t>0.0945</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2745,26 +3938,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.0648</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2773,36 +3966,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>010780</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>西部利得量化优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2811,6 +4004,214 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3132,7 +4533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
+++ b/数据整理/stocks/A股/科创板/688017-绿的谐波.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>15.77</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>10.73</v>
+        <v>15.77</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.87</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.39</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -616,7 +633,1487 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4801</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4763</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3779</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1693</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014706</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014707</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富匠心明选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013250</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新智能制造混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013051</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013052</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇泉臻心致远混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011340</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011341</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时战略新材料主题混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2809,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3169,7 +4666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3788,214 +5285,6 @@
       </c>
       <c r="H16" t="n">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010779</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1957</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001721</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信新增益混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0945</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0648</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010780</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>西部利得量化优选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0445</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4060,36 +5349,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>010779</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>西部利得量化优选一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>9.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1252</t>
+          <t>0.1957</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4108,26 +5397,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>7.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.04</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0825</t>
+          <t>0.0945</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4146,26 +5435,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0745</t>
+          <t>0.0648</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4174,36 +5463,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000756</t>
+          <t>010780</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信潜力新蓝筹股票</t>
+          <t>西部利得量化优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0445</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4212,6 +5501,214 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001721</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信新增益混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4531,668 +6028,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>398021</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中海能源策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6632</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>398061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中海消费混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2409</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008962</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2304</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001070</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信信息产业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2146</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1575</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1055</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001721</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信新增益混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>29.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.90</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0977</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000308</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信创新中国混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.48</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0672</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002861</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信智能制造股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0671</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>530012</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信积极配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>78.98</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.13</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0458</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000756</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.00</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0095</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001781</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>建信现代服务业股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>310318</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0054</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007804</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>